--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ereg-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ereg-Erbb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +537,10 @@
         <v>0.394007</v>
       </c>
       <c r="I2">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J2">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,7 +558,7 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
         <v>0.001352626031</v>
@@ -570,10 +567,10 @@
         <v>0.012173634279</v>
       </c>
       <c r="S2">
-        <v>0.5115855886922808</v>
+        <v>0.9100916472813496</v>
       </c>
       <c r="T2">
-        <v>0.5115855886922809</v>
+        <v>0.9100916472813495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +599,10 @@
         <v>0.394007</v>
       </c>
       <c r="I3">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J3">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +629,10 @@
         <v>0.000235616186</v>
       </c>
       <c r="S3">
-        <v>0.009901549730976596</v>
+        <v>0.01761448700761391</v>
       </c>
       <c r="T3">
-        <v>0.009901549730976598</v>
+        <v>0.01761448700761391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +640,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -658,16 +655,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H4">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I4">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J4">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,19 +682,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
-        <v>0.00020608299</v>
+        <v>0.000105406832</v>
       </c>
       <c r="R4">
-        <v>0.00185474691</v>
+        <v>0.000948661488</v>
       </c>
       <c r="S4">
-        <v>0.07794400325171282</v>
+        <v>0.07092121190264783</v>
       </c>
       <c r="T4">
-        <v>0.07794400325171283</v>
+        <v>0.0709212119026478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +717,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H5">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I5">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J5">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,140 +747,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q5">
-        <v>3.988659999999999E-06</v>
+        <v>2.040110222222222E-06</v>
       </c>
       <c r="R5">
-        <v>3.589794E-05</v>
+        <v>1.8360992E-05</v>
       </c>
       <c r="S5">
-        <v>0.001508577335810087</v>
+        <v>0.001372653808388627</v>
       </c>
       <c r="T5">
-        <v>0.001508577335810087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.301508</v>
-      </c>
-      <c r="I6">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J6">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.010299</v>
-      </c>
-      <c r="N6">
-        <v>0.030897</v>
-      </c>
-      <c r="O6">
-        <v>0.9810128591839975</v>
-      </c>
-      <c r="P6">
-        <v>0.9810128591839975</v>
-      </c>
-      <c r="Q6">
-        <v>0.001035076964</v>
-      </c>
-      <c r="R6">
-        <v>0.009315692676000001</v>
-      </c>
-      <c r="S6">
-        <v>0.3914832672400039</v>
-      </c>
-      <c r="T6">
-        <v>0.3914832672400039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.301508</v>
-      </c>
-      <c r="I7">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J7">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.0001993333333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.000598</v>
-      </c>
-      <c r="O7">
-        <v>0.01898714081600254</v>
-      </c>
-      <c r="P7">
-        <v>0.01898714081600254</v>
-      </c>
-      <c r="Q7">
-        <v>2.003353155555556E-05</v>
-      </c>
-      <c r="R7">
-        <v>0.000180301784</v>
-      </c>
-      <c r="S7">
-        <v>0.007577013749215856</v>
-      </c>
-      <c r="T7">
-        <v>0.007577013749215857</v>
+        <v>0.001372653808388626</v>
       </c>
     </row>
   </sheetData>
